--- a/testData/sampledata.xlsx
+++ b/testData/sampledata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrainingWorkspace\TrainingRecords\HFrameworkExample\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4A7D40-1B06-420D-A27A-1A4E06E574E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A5289F-B400-4A18-B25D-4A2E7A4454E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{77B188EE-0B98-4B5C-A304-0F4CEA9247AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{77B188EE-0B98-4B5C-A304-0F4CEA9247AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>abc</t>
   </si>
@@ -52,9 +53,6 @@
     <t>NCtest123</t>
   </si>
   <si>
-    <t>NCtest3@gmail.com</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
@@ -73,7 +71,13 @@
     <t>john</t>
   </si>
   <si>
-    <t>aaron.rodriguez0@example.com</t>
+    <t>NCtest232@gmail.com</t>
+  </si>
+  <si>
+    <t>risa</t>
+  </si>
+  <si>
+    <t>risa@123</t>
   </si>
 </sst>
 </file>
@@ -458,41 +462,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F87F56-B2B7-4033-84EB-9E3190BA5487}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BC3348EA-2877-410D-84E9-A6EC3F9ED29D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BC3348EA-2877-410D-84E9-A6EC3F9ED29D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B51B4-F703-4C63-B6CD-1F14FEBD57E5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{05E29E9E-29BC-4205-99AE-EA81F4D18EC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821D29D3-089D-498C-BA4F-1B7D24690E08}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -507,13 +549,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -521,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -535,22 +577,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3652F8F0-7846-4E87-B168-6A03EE46BEFA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -561,10 +605,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
